--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2081216.148807911</v>
+        <v>-2083799.18087764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>328.5706246812955</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -713,16 +713,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>98.06558468345037</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.38715652496347</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.44336989065502</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>396.867004107114</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939313</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.2532214802694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>117.3749189639032</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>295.8588711970389</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>24.62149822509123</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>43.6861005744564</v>
       </c>
       <c r="G10" t="n">
-        <v>45.67405313867397</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>86.90598908794122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.41770597126714</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>119.4566717128375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>159.9541141389047</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.3789405564522</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>176.7621441121398</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>220.7930342327023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>3.458642397731978</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,22 +2527,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
         <v>158.4533545316662</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512507</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559696</v>
+        <v>117.2403075398305</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253072</v>
       </c>
       <c r="H28" t="n">
         <v>131.5012462792622</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160388</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316002</v>
+        <v>57.58178014316004</v>
       </c>
       <c r="S28" t="n">
         <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>167.0590229020082</v>
+        <v>208.6119837603266</v>
       </c>
       <c r="U28" t="n">
         <v>277.3910078222825</v>
@@ -2773,7 +2773,7 @@
         <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.7295317696294</v>
       </c>
       <c r="X28" t="n">
         <v>216.9161888220755</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.38228731519</v>
+        <v>2249.271807195286</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>1880.309290254874</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1522.043591648124</v>
       </c>
       <c r="E2" t="n">
         <v>1190.154071768027</v>
@@ -4322,34 +4322,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>2303.982127379311</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.982127379311</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>220.7945173764275</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757126</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757126</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>609.2899331452386</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720652</v>
+        <v>609.2899331452386</v>
       </c>
       <c r="V4" t="n">
-        <v>162.9195607661784</v>
+        <v>609.2899331452386</v>
       </c>
       <c r="W4" t="n">
-        <v>162.9195607661784</v>
+        <v>609.2899331452386</v>
       </c>
       <c r="X4" t="n">
-        <v>162.9195607661784</v>
+        <v>609.2899331452386</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>388.4973540017085</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493311</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.639481552899</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3737829461486</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>878.3737829461486</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>467.387878156541</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,25 +4662,25 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
         <v>1525.370990471663</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>428.615504601943</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>428.615504601943</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>428.615504601943</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>428.615504601943</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>610.2639694321828</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3300.735621381805</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3094.757873766027</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3094.757873766027</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2763.694986422457</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2410.926331152342</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2037.460572891262</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,7 +4884,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158132</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.6772566376941</v>
+        <v>576.372060369826</v>
       </c>
       <c r="C10" t="n">
-        <v>410.6772566376941</v>
+        <v>576.372060369826</v>
       </c>
       <c r="D10" t="n">
-        <v>260.5606172253583</v>
+        <v>426.2554209574903</v>
       </c>
       <c r="E10" t="n">
-        <v>112.6475236429652</v>
+        <v>278.3423273750972</v>
       </c>
       <c r="F10" t="n">
-        <v>112.6475236429652</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X10" t="n">
-        <v>631.4698357812242</v>
+        <v>576.372060369826</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.6772566376941</v>
+        <v>576.372060369826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3807.864035926977</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>4138.923422159306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.247644860661</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>785.3114619327541</v>
+        <v>594.8179559048582</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>444.7013164925224</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>296.7882229101295</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101295</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690901</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.896109690901</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5279,46 +5279,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.3306680894889</v>
+        <v>869.6905094135295</v>
       </c>
       <c r="C16" t="n">
-        <v>820.394485161582</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D16" t="n">
-        <v>670.2778457492462</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>1170.979132919728</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,19 +5996,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.2476448606602</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>785.3114619327534</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>635.1948225204176</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,19 +6309,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.1773242089416</v>
+        <v>663.4384611046044</v>
       </c>
       <c r="C28" t="n">
-        <v>718.1234307426123</v>
+        <v>503.3845676382748</v>
       </c>
       <c r="D28" t="n">
-        <v>576.889080791854</v>
+        <v>503.3845676382748</v>
       </c>
       <c r="E28" t="n">
-        <v>437.8582766710383</v>
+        <v>503.3845676382748</v>
       </c>
       <c r="F28" t="n">
-        <v>299.8506186347054</v>
+        <v>384.960014567739</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347054</v>
+        <v>226.6462047441964</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384809</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,25 +6385,25 @@
         <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064183</v>
+        <v>453.1530078064184</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836503</v>
+        <v>852.2571338836506</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077277</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687554</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
         <v>2388.703572162405</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790596</v>
+        <v>2516.607338790597</v>
       </c>
       <c r="R28" t="n">
         <v>2458.443924504576</v>
@@ -6412,22 +6412,22 @@
         <v>2284.471379621058</v>
       </c>
       <c r="T28" t="n">
-        <v>2115.724891841252</v>
+        <v>2073.752204105577</v>
       </c>
       <c r="U28" t="n">
-        <v>1835.531954647027</v>
+        <v>1793.559266911352</v>
       </c>
       <c r="V28" t="n">
-        <v>1589.729755902717</v>
+        <v>1547.757068167042</v>
       </c>
       <c r="W28" t="n">
-        <v>1309.194875327334</v>
+        <v>1267.222187591659</v>
       </c>
       <c r="X28" t="n">
-        <v>1090.087613890894</v>
+        <v>1048.114926155219</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.1773242089416</v>
+        <v>836.2046364732666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,13 +7020,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345475</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
@@ -7798,19 +7798,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>53.35974539096628</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>271.6655159950187</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>88.36785838935731</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.1412834614398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.327114944373116e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61.70948393027113</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>45.84813034729838</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.97729093373163</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>126.5688841976863</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.86788054217566</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>40.6433062151485</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>65.72996410388868</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.257951202385252</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149756</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512507</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796075</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.38727391613913</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160389</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>41.55296085831844</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1347040.488613818</v>
+        <v>1347040.488613819</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1347040.488613819</v>
+        <v>1347040.488613818</v>
       </c>
     </row>
     <row r="9">
@@ -26314,16 +26314,16 @@
         <v>65808.19547374985</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.65996900063</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80714.6599690006</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
@@ -26332,28 +26332,28 @@
         <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>81217.80383555165</v>
+        <v>81217.80383555163</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006243</v>
+        <v>12392.94474006246</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569316</v>
+        <v>7034.773253569303</v>
       </c>
       <c r="P3" t="n">
         <v>12392.94474006244</v>
@@ -26418,28 +26418,28 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189199</v>
       </c>
-      <c r="H4" t="n">
-        <v>16046.583971892</v>
-      </c>
       <c r="I4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946528</v>
+        <v>18940.0726994653</v>
       </c>
       <c r="K4" t="n">
         <v>24037.44323498544</v>
@@ -26448,7 +26448,7 @@
         <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498545</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
-        <v>-119426.5076790176</v>
+        <v>-119426.5076790175</v>
       </c>
       <c r="D6" t="n">
         <v>-119426.5076790175</v>
       </c>
       <c r="E6" t="n">
-        <v>-361866.9156341538</v>
+        <v>-361901.6535595896</v>
       </c>
       <c r="F6" t="n">
-        <v>-36454.45382679849</v>
+        <v>-36489.19175223412</v>
       </c>
       <c r="G6" t="n">
-        <v>-36454.4538267985</v>
+        <v>-36489.19175223415</v>
       </c>
       <c r="H6" t="n">
-        <v>-36454.45382679853</v>
+        <v>-36489.19175223421</v>
       </c>
       <c r="I6" t="n">
-        <v>-36454.45382679851</v>
+        <v>-36489.19175223424</v>
       </c>
       <c r="J6" t="n">
-        <v>-264150.0322794855</v>
+        <v>-264172.1916082574</v>
       </c>
       <c r="K6" t="n">
-        <v>-57490.32684253489</v>
+        <v>-57490.32684253494</v>
       </c>
       <c r="L6" t="n">
-        <v>-45097.38210247245</v>
+        <v>-45097.38210247244</v>
       </c>
       <c r="M6" t="n">
-        <v>-130152.4100379843</v>
+        <v>-130152.4100379844</v>
       </c>
       <c r="N6" t="n">
         <v>-45097.38210247245</v>
@@ -26561,7 +26561,7 @@
         <v>-52132.15535604175</v>
       </c>
       <c r="P6" t="n">
-        <v>-57490.32684253488</v>
+        <v>-57490.32684253491</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507804</v>
+        <v>15.49118092507808</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961644</v>
+        <v>8.793466566961628</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507804</v>
+        <v>15.49118092507806</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507804</v>
+        <v>15.49118092507808</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>14.05472154633941</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>314.5552485790759</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.57875870166791</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.04612905902809</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.82417042364403</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>84.5662635630846</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.7349474484749</v>
       </c>
       <c r="G10" t="n">
-        <v>120.3517551203543</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961662</v>
+        <v>8.793466566961646</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200292</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,22 +32072,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>235.5705495535876</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,10 +34147,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366959</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156791</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991501</v>
+        <v>89.839949829915</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765966</v>
+        <v>273.1260549765965</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.135480886093</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680068</v>
+        <v>435.0658935680067</v>
       </c>
       <c r="N28" t="n">
         <v>430.4195995568691</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>92.97430510914316</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,10 +37795,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
